--- a/测试数据表格.xlsx
+++ b/测试数据表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z'p\IdeaProjects\Spider-Man\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6E711B-F104-4454-B9EC-82096B5F0AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A85C1C-CD4B-404B-9DE9-A2937843C8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>方案：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,70 @@
   </si>
   <si>
     <t>size = c*n/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1881ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>224ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>366ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>772ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5306ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17368ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1773ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3276ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1243ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0862ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0712ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.543ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.842ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.239ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.593ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.067ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,9 +182,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -404,7 +473,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -422,49 +491,63 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>12</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>13</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>14</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>15</v>
       </c>
     </row>
@@ -472,22 +555,22 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>38</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>46</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>51</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>72</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>104</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>182</v>
       </c>
     </row>
@@ -495,22 +578,22 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>0.04</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.05</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>0.04</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>0.25</v>
       </c>
     </row>
@@ -518,15 +601,69 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9.06E-2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.9530000000000001</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/测试数据表格.xlsx
+++ b/测试数据表格.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z'p\IdeaProjects\Spider-Man\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A85C1C-CD4B-404B-9DE9-A2937843C8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418BAE0B-33C2-4523-8FDF-94AEBF6FDEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>方案：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,85 @@
   </si>
   <si>
     <t>5.067ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size = c*n/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewDVH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c=0.125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setup时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>324ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>790ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3849ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14738ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ser文件大小</t>
+  </si>
+  <si>
+    <t>257KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1032KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4129KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>645KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dpMM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chFB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dprfMM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_volume=2**6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -666,6 +745,129 @@
         <v>28</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
